--- a/assets/EquivalenceIndicateurs.xlsx
+++ b/assets/EquivalenceIndicateurs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41445c22dc8dedf8/Bureau/Télécom SudParis/S8/Projet Cassiopée/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacqu\PycharmProjects\projet cassiopée\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_81E9056189DD198B793F97E1F4F6ED28B5F82D1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E986CC-63A6-46B7-85FA-94BDB70F1605}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762EE70A-198B-43C1-BEB0-5E38F72738CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,9 +318,6 @@
     <t>Q-DRFD-01</t>
   </si>
   <si>
-    <t>Non-permanents recherche en ETPT (base annuelle)</t>
-  </si>
-  <si>
     <t>Q-DRH-03</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>dotation institut = contrib. Financement école + total dépenses hors permanents et vacataires - ressources propres totales</t>
+  </si>
+  <si>
+    <t>Non-permanents en ETPT (base annuelle)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
   <dimension ref="A2:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,10 +872,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>15</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1080,7 +1080,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1088,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1120,7 +1120,7 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1137,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1154,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1171,7 +1171,7 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -1188,7 +1188,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -1205,7 +1205,7 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="87" x14ac:dyDescent="0.35">
@@ -1222,7 +1222,7 @@
         <v>45</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -1239,7 +1239,7 @@
         <v>45</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -1256,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>45</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1290,7 +1290,7 @@
         <v>45</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -1307,7 +1307,7 @@
         <v>45</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -1324,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1341,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1358,7 +1358,7 @@
         <v>45</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -1375,7 +1375,7 @@
         <v>45</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -1392,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -1409,7 +1409,7 @@
         <v>45</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1426,7 +1426,7 @@
         <v>68</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1443,7 +1443,7 @@
         <v>68</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1460,7 +1460,7 @@
         <v>73</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1477,7 +1477,7 @@
         <v>33</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -1494,7 +1494,7 @@
         <v>33</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -1511,7 +1511,7 @@
         <v>73</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
